--- a/2.Midware/3.Resource/excel/class.xlsx
+++ b/2.Midware/3.Resource/excel/class.xlsx
@@ -756,8 +756,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -794,81 +794,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,17 +809,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -914,7 +839,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,9 +913,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,43 +1019,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,25 +1079,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,7 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,19 +1109,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,31 +1133,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1163,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,22 +1214,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1249,17 +1234,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1284,15 +1278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1307,6 +1292,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1315,10 +1315,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1327,133 +1327,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1935,11 +1935,11 @@
   <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
+    <row r="22" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:18">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -2908,11 +2908,8 @@
       <c r="R22" s="6">
         <v>0</v>
       </c>
-      <c r="S22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
+    </row>
+    <row r="23" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:18">
       <c r="A23" s="6" t="s">
         <v>52</v>
       </c>
@@ -2961,11 +2958,8 @@
       <c r="R23" s="6">
         <v>0</v>
       </c>
-      <c r="S23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
+    </row>
+    <row r="24" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:18">
       <c r="A24" s="6" t="s">
         <v>52</v>
       </c>
@@ -3005,11 +2999,8 @@
       <c r="R24" s="6">
         <v>0</v>
       </c>
-      <c r="S24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
+    </row>
+    <row r="25" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:18">
       <c r="A25" s="6" t="s">
         <v>52</v>
       </c>
@@ -3061,11 +3052,8 @@
       <c r="R25" s="6">
         <v>0</v>
       </c>
-      <c r="S25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" s="7" customFormat="1" ht="16.5" customHeight="1" spans="1:20">
+    </row>
+    <row r="26" s="7" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
       <c r="A26" s="7" t="s">
         <v>52</v>
       </c>
@@ -3081,7 +3069,6 @@
       <c r="E26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
         <v>103</v>
       </c>
@@ -3118,14 +3105,9 @@
       <c r="R26" s="7">
         <v>0</v>
       </c>
-      <c r="S26" s="7">
-        <v>0</v>
-      </c>
-      <c r="T26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:18">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
@@ -3177,11 +3159,8 @@
       <c r="R27" s="6">
         <v>0</v>
       </c>
-      <c r="S27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
+    </row>
+    <row r="28" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:18">
       <c r="A28" s="6" t="s">
         <v>52</v>
       </c>
@@ -3230,11 +3209,8 @@
       <c r="R28" s="6">
         <v>0</v>
       </c>
-      <c r="S28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" s="6" customFormat="1" ht="17" customHeight="1" spans="1:19">
+    </row>
+    <row r="29" s="6" customFormat="1" ht="17" customHeight="1" spans="1:18">
       <c r="A29" s="6" t="s">
         <v>52</v>
       </c>
@@ -3283,11 +3259,8 @@
       <c r="R29" s="6">
         <v>0</v>
       </c>
-      <c r="S29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:19">
+    </row>
+    <row r="30" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:18">
       <c r="A30" s="6" t="s">
         <v>52</v>
       </c>
@@ -3330,11 +3303,8 @@
       <c r="R30" s="6">
         <v>0</v>
       </c>
-      <c r="S30" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" s="8" customFormat="1" spans="1:19">
+    </row>
+    <row r="31" s="8" customFormat="1" spans="1:18">
       <c r="A31" s="8" t="s">
         <v>89</v>
       </c>
@@ -3347,11 +3317,6 @@
       <c r="D31" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
       <c r="J31" s="8">
         <v>1</v>
       </c>
@@ -3379,11 +3344,8 @@
       <c r="R31" s="8">
         <v>0</v>
       </c>
-      <c r="S31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="8" customFormat="1" spans="1:19">
+    </row>
+    <row r="32" s="8" customFormat="1" spans="1:18">
       <c r="A32" s="8" t="s">
         <v>89</v>
       </c>
@@ -3396,11 +3358,6 @@
       <c r="D32" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
       <c r="J32" s="8">
         <v>1</v>
       </c>
@@ -3428,11 +3385,8 @@
       <c r="R32" s="8">
         <v>0</v>
       </c>
-      <c r="S32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" s="9" customFormat="1" spans="1:20">
+    </row>
+    <row r="33" s="9" customFormat="1" spans="1:18">
       <c r="A33" s="15" t="s">
         <v>103</v>
       </c>
@@ -3448,10 +3402,6 @@
       <c r="E33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
       <c r="J33" s="9">
         <v>1</v>
       </c>
@@ -3479,14 +3429,8 @@
       <c r="R33" s="9">
         <v>0</v>
       </c>
-      <c r="S33" s="9">
-        <v>0</v>
-      </c>
-      <c r="T33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" s="9" customFormat="1" spans="1:20">
+    </row>
+    <row r="34" s="9" customFormat="1" spans="1:18">
       <c r="A34" s="15" t="s">
         <v>103</v>
       </c>
@@ -3500,10 +3444,6 @@
         <v>124</v>
       </c>
       <c r="E34" s="15"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
       <c r="J34" s="9">
         <v>1</v>
       </c>
@@ -3531,14 +3471,8 @@
       <c r="R34" s="9">
         <v>0</v>
       </c>
-      <c r="S34" s="9">
-        <v>0</v>
-      </c>
-      <c r="T34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" s="9" customFormat="1" spans="1:20">
+    </row>
+    <row r="35" s="9" customFormat="1" spans="1:18">
       <c r="A35" s="15" t="s">
         <v>103</v>
       </c>
@@ -3554,10 +3488,6 @@
       <c r="E35" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
       <c r="J35" s="9">
         <v>1</v>
       </c>
@@ -3585,14 +3515,8 @@
       <c r="R35" s="9">
         <v>0</v>
       </c>
-      <c r="S35" s="9">
-        <v>0</v>
-      </c>
-      <c r="T35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" s="9" customFormat="1" spans="1:20">
+    </row>
+    <row r="36" s="9" customFormat="1" spans="1:18">
       <c r="A36" s="15" t="s">
         <v>103</v>
       </c>
@@ -3606,10 +3530,6 @@
         <v>128</v>
       </c>
       <c r="E36" s="15"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
       <c r="J36" s="9">
         <v>1</v>
       </c>
@@ -3637,14 +3557,8 @@
       <c r="R36" s="9">
         <v>0</v>
       </c>
-      <c r="S36" s="9">
-        <v>0</v>
-      </c>
-      <c r="T36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" s="9" customFormat="1" spans="1:20">
+    </row>
+    <row r="37" s="9" customFormat="1" spans="1:18">
       <c r="A37" s="15" t="s">
         <v>103</v>
       </c>
@@ -3658,10 +3572,6 @@
         <v>130</v>
       </c>
       <c r="E37" s="15"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
       <c r="J37" s="9">
         <v>1</v>
       </c>
@@ -3689,14 +3599,8 @@
       <c r="R37" s="9">
         <v>0</v>
       </c>
-      <c r="S37" s="9">
-        <v>0</v>
-      </c>
-      <c r="T37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" s="10" customFormat="1" spans="1:19">
+    </row>
+    <row r="38" s="10" customFormat="1" spans="1:18">
       <c r="A38" s="16" t="s">
         <v>108</v>
       </c>
@@ -3712,10 +3616,6 @@
       <c r="E38" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
       <c r="J38" s="10">
         <v>1</v>
       </c>
@@ -3743,11 +3643,8 @@
       <c r="R38" s="10">
         <v>0</v>
       </c>
-      <c r="S38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" s="10" customFormat="1" spans="1:19">
+    </row>
+    <row r="39" s="10" customFormat="1" spans="1:18">
       <c r="A39" s="16" t="s">
         <v>108</v>
       </c>
@@ -3760,11 +3657,6 @@
       <c r="D39" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
       <c r="J39" s="10">
         <v>1</v>
       </c>
@@ -3792,11 +3684,8 @@
       <c r="R39" s="10">
         <v>0</v>
       </c>
-      <c r="S39" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" s="9" customFormat="1" spans="1:19">
+    </row>
+    <row r="40" s="9" customFormat="1" spans="1:18">
       <c r="A40" s="15" t="s">
         <v>98</v>
       </c>
@@ -3809,11 +3698,6 @@
       <c r="D40" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
       <c r="J40" s="9">
         <v>1</v>
       </c>
@@ -3841,11 +3725,8 @@
       <c r="R40" s="9">
         <v>0</v>
       </c>
-      <c r="S40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" s="9" customFormat="1" spans="1:19">
+    </row>
+    <row r="41" s="9" customFormat="1" spans="1:18">
       <c r="A41" s="15" t="s">
         <v>98</v>
       </c>
@@ -3861,10 +3742,6 @@
       <c r="E41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
       <c r="J41" s="9">
         <v>1</v>
       </c>
@@ -3892,11 +3769,8 @@
       <c r="R41" s="9">
         <v>0</v>
       </c>
-      <c r="S41" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" s="9" customFormat="1" spans="1:19">
+    </row>
+    <row r="42" s="9" customFormat="1" spans="1:18">
       <c r="A42" s="15" t="s">
         <v>98</v>
       </c>
@@ -3912,10 +3786,6 @@
       <c r="E42" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
       <c r="J42" s="9">
         <v>1</v>
       </c>
@@ -3943,11 +3813,8 @@
       <c r="R42" s="9">
         <v>0</v>
       </c>
-      <c r="S42" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" s="9" customFormat="1" spans="1:19">
+    </row>
+    <row r="43" s="9" customFormat="1" spans="1:18">
       <c r="A43" s="15" t="s">
         <v>98</v>
       </c>
@@ -3960,11 +3827,6 @@
       <c r="D43" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
       <c r="J43" s="9">
         <v>1</v>
       </c>
@@ -3992,11 +3854,8 @@
       <c r="R43" s="9">
         <v>0</v>
       </c>
-      <c r="S43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" s="11" customFormat="1" spans="1:19">
+    </row>
+    <row r="44" s="11" customFormat="1" spans="1:18">
       <c r="A44" s="17" t="s">
         <v>117</v>
       </c>
@@ -4009,11 +3868,6 @@
       <c r="D44" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
       <c r="J44" s="11">
         <v>1</v>
       </c>
@@ -4041,11 +3895,8 @@
       <c r="R44" s="11">
         <v>0</v>
       </c>
-      <c r="S44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" s="11" customFormat="1" spans="1:19">
+    </row>
+    <row r="45" s="11" customFormat="1" spans="1:18">
       <c r="A45" s="17" t="s">
         <v>117</v>
       </c>
@@ -4058,11 +3909,6 @@
       <c r="D45" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
       <c r="J45" s="11">
         <v>1</v>
       </c>
@@ -4090,11 +3936,8 @@
       <c r="R45" s="11">
         <v>0</v>
       </c>
-      <c r="S45" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" s="12" customFormat="1" spans="1:19">
+    </row>
+    <row r="46" s="12" customFormat="1" spans="1:18">
       <c r="A46" s="12" t="s">
         <v>92</v>
       </c>
@@ -4107,11 +3950,7 @@
       <c r="D46" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
       <c r="H46" s="18"/>
-      <c r="I46" s="12"/>
       <c r="J46" s="12">
         <v>0</v>
       </c>
@@ -4139,11 +3978,8 @@
       <c r="R46" s="12">
         <v>0</v>
       </c>
-      <c r="S46" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" s="12" customFormat="1" spans="1:19">
+    </row>
+    <row r="47" s="12" customFormat="1" spans="1:18">
       <c r="A47" s="12" t="s">
         <v>92</v>
       </c>
@@ -4156,11 +3992,6 @@
       <c r="D47" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
       <c r="J47" s="12">
         <v>0</v>
       </c>
@@ -4188,11 +4019,8 @@
       <c r="R47" s="12">
         <v>0</v>
       </c>
-      <c r="S47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" s="12" customFormat="1" spans="1:19">
+    </row>
+    <row r="48" s="12" customFormat="1" spans="1:18">
       <c r="A48" s="12" t="s">
         <v>92</v>
       </c>
@@ -4205,11 +4033,6 @@
       <c r="D48" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
       <c r="J48" s="12">
         <v>0</v>
       </c>
@@ -4237,11 +4060,8 @@
       <c r="R48" s="12">
         <v>0</v>
       </c>
-      <c r="S48" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" s="12" customFormat="1" spans="1:19">
+    </row>
+    <row r="49" s="12" customFormat="1" spans="1:18">
       <c r="A49" s="12" t="s">
         <v>92</v>
       </c>
@@ -4254,11 +4074,6 @@
       <c r="D49" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
       <c r="J49" s="12">
         <v>0</v>
       </c>
@@ -4286,11 +4101,8 @@
       <c r="R49" s="12">
         <v>0</v>
       </c>
-      <c r="S49" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" s="12" customFormat="1" spans="1:19">
+    </row>
+    <row r="50" s="12" customFormat="1" spans="1:18">
       <c r="A50" s="12" t="s">
         <v>92</v>
       </c>
@@ -4303,11 +4115,6 @@
       <c r="D50" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
       <c r="J50" s="12">
         <v>0</v>
       </c>
@@ -4335,11 +4142,8 @@
       <c r="R50" s="12">
         <v>0</v>
       </c>
-      <c r="S50" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" s="12" customFormat="1" spans="1:19">
+    </row>
+    <row r="51" s="12" customFormat="1" spans="1:18">
       <c r="A51" s="12" t="s">
         <v>92</v>
       </c>
@@ -4352,11 +4156,6 @@
       <c r="D51" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
       <c r="J51" s="12">
         <v>0</v>
       </c>
@@ -4384,11 +4183,8 @@
       <c r="R51" s="12">
         <v>0</v>
       </c>
-      <c r="S51" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" s="12" customFormat="1" spans="1:19">
+    </row>
+    <row r="52" s="12" customFormat="1" spans="1:18">
       <c r="A52" s="12" t="s">
         <v>92</v>
       </c>
@@ -4401,11 +4197,6 @@
       <c r="D52" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
       <c r="J52" s="12">
         <v>0</v>
       </c>
@@ -4433,11 +4224,8 @@
       <c r="R52" s="12">
         <v>0</v>
       </c>
-      <c r="S52" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="12" customFormat="1" spans="1:19">
+    </row>
+    <row r="53" s="12" customFormat="1" spans="1:18">
       <c r="A53" s="12" t="s">
         <v>92</v>
       </c>
@@ -4450,11 +4238,6 @@
       <c r="D53" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
       <c r="J53" s="12">
         <v>0</v>
       </c>
@@ -4482,11 +4265,8 @@
       <c r="R53" s="12">
         <v>0</v>
       </c>
-      <c r="S53" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" s="12" customFormat="1" spans="1:19">
+    </row>
+    <row r="54" s="12" customFormat="1" spans="1:18">
       <c r="A54" s="12" t="s">
         <v>92</v>
       </c>
@@ -4499,11 +4279,6 @@
       <c r="D54" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
       <c r="J54" s="12">
         <v>0</v>
       </c>
@@ -4531,11 +4306,8 @@
       <c r="R54" s="12">
         <v>0</v>
       </c>
-      <c r="S54" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" s="12" customFormat="1" spans="1:19">
+    </row>
+    <row r="55" s="12" customFormat="1" spans="1:18">
       <c r="A55" s="12" t="s">
         <v>92</v>
       </c>
@@ -4548,11 +4320,6 @@
       <c r="D55" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
       <c r="J55" s="12">
         <v>0</v>
       </c>
@@ -4580,11 +4347,8 @@
       <c r="R55" s="12">
         <v>0</v>
       </c>
-      <c r="S55" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" s="12" customFormat="1" spans="1:19">
+    </row>
+    <row r="56" s="12" customFormat="1" spans="1:18">
       <c r="A56" s="12" t="s">
         <v>92</v>
       </c>
@@ -4597,11 +4361,6 @@
       <c r="D56" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
       <c r="J56" s="12">
         <v>0</v>
       </c>
@@ -4629,11 +4388,8 @@
       <c r="R56" s="12">
         <v>0</v>
       </c>
-      <c r="S56" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" s="12" customFormat="1" spans="1:19">
+    </row>
+    <row r="57" s="12" customFormat="1" spans="1:18">
       <c r="A57" s="12" t="s">
         <v>92</v>
       </c>
@@ -4646,11 +4402,6 @@
       <c r="D57" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
       <c r="J57" s="12">
         <v>0</v>
       </c>
@@ -4678,11 +4429,8 @@
       <c r="R57" s="12">
         <v>0</v>
       </c>
-      <c r="S57" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" s="12" customFormat="1" spans="1:19">
+    </row>
+    <row r="58" s="12" customFormat="1" spans="1:18">
       <c r="A58" s="12" t="s">
         <v>92</v>
       </c>
@@ -4695,11 +4443,6 @@
       <c r="D58" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
       <c r="J58" s="12">
         <v>0</v>
       </c>
@@ -4727,11 +4470,8 @@
       <c r="R58" s="12">
         <v>0</v>
       </c>
-      <c r="S58" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" s="11" customFormat="1" spans="1:19">
+    </row>
+    <row r="59" s="11" customFormat="1" spans="1:18">
       <c r="A59" s="17" t="s">
         <v>166</v>
       </c>
@@ -4747,10 +4487,6 @@
       <c r="E59" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
       <c r="J59" s="11">
         <v>1</v>
       </c>
@@ -4778,11 +4514,8 @@
       <c r="R59" s="11">
         <v>0</v>
       </c>
-      <c r="S59" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" s="11" customFormat="1" spans="1:19">
+    </row>
+    <row r="60" s="11" customFormat="1" spans="1:18">
       <c r="A60" s="17" t="s">
         <v>166</v>
       </c>
@@ -4798,10 +4531,6 @@
       <c r="E60" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
       <c r="J60" s="11">
         <v>1</v>
       </c>
@@ -4829,11 +4558,8 @@
       <c r="R60" s="11">
         <v>0</v>
       </c>
-      <c r="S60" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" s="11" customFormat="1" spans="1:19">
+    </row>
+    <row r="61" s="11" customFormat="1" spans="1:18">
       <c r="A61" s="17" t="s">
         <v>111</v>
       </c>
@@ -4846,11 +4572,6 @@
       <c r="D61" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
       <c r="J61" s="11">
         <v>1</v>
       </c>
@@ -4878,11 +4599,8 @@
       <c r="R61" s="11">
         <v>0</v>
       </c>
-      <c r="S61" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" s="11" customFormat="1" spans="1:19">
+    </row>
+    <row r="62" s="11" customFormat="1" spans="1:18">
       <c r="A62" s="17" t="s">
         <v>114</v>
       </c>
@@ -4898,10 +4616,6 @@
       <c r="E62" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
       <c r="J62" s="11">
         <v>1</v>
       </c>
@@ -4929,11 +4643,8 @@
       <c r="R62" s="11">
         <v>0</v>
       </c>
-      <c r="S62" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" s="11" customFormat="1" spans="1:19">
+    </row>
+    <row r="63" s="11" customFormat="1" spans="1:18">
       <c r="A63" s="17" t="s">
         <v>114</v>
       </c>
@@ -4949,10 +4660,6 @@
       <c r="E63" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
       <c r="J63" s="11">
         <v>1</v>
       </c>
@@ -4980,11 +4687,8 @@
       <c r="R63" s="11">
         <v>0</v>
       </c>
-      <c r="S63" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" s="11" customFormat="1" spans="1:19">
+    </row>
+    <row r="64" s="11" customFormat="1" spans="1:18">
       <c r="A64" s="17" t="s">
         <v>114</v>
       </c>
@@ -4997,11 +4701,6 @@
       <c r="D64" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
       <c r="J64" s="11">
         <v>1</v>
       </c>
@@ -5029,11 +4728,8 @@
       <c r="R64" s="11">
         <v>0</v>
       </c>
-      <c r="S64" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" s="11" customFormat="1" spans="1:19">
+    </row>
+    <row r="65" s="11" customFormat="1" spans="1:18">
       <c r="A65" s="17" t="s">
         <v>176</v>
       </c>
@@ -5049,10 +4745,6 @@
       <c r="E65" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
       <c r="J65" s="11">
         <v>1</v>
       </c>
@@ -5080,11 +4772,8 @@
       <c r="R65" s="11">
         <v>0</v>
       </c>
-      <c r="S65" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" s="13" customFormat="1" spans="1:19">
+    </row>
+    <row r="66" s="13" customFormat="1" spans="1:18">
       <c r="A66" s="13" t="s">
         <v>178</v>
       </c>
@@ -5097,11 +4786,6 @@
       <c r="D66" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
       <c r="J66" s="13">
         <v>1</v>
       </c>
@@ -5129,11 +4813,8 @@
       <c r="R66" s="13">
         <v>0</v>
       </c>
-      <c r="S66" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" s="13" customFormat="1" spans="1:19">
+    </row>
+    <row r="67" s="13" customFormat="1" spans="1:18">
       <c r="A67" s="13" t="s">
         <v>178</v>
       </c>
@@ -5146,11 +4827,6 @@
       <c r="D67" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
       <c r="J67" s="13">
         <v>1</v>
       </c>
@@ -5176,9 +4852,6 @@
         <v>0</v>
       </c>
       <c r="R67" s="13">
-        <v>0</v>
-      </c>
-      <c r="S67" s="13">
         <v>0</v>
       </c>
     </row>
